--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1059"/>
+  <dimension ref="A1:I1060"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37583,6 +37583,41 @@
         <v>5300</v>
       </c>
     </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1060" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1060" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G1060" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>5100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1060"/>
+  <dimension ref="A1:I1061"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37618,6 +37618,43 @@
         <v>5100</v>
       </c>
     </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1061" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1061" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1061" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1061" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1061" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1061"/>
+  <dimension ref="A1:I1062"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37655,6 +37655,41 @@
         </is>
       </c>
     </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1062" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1062" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G1062" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H1062" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1062"/>
+  <dimension ref="A1:I1063"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37690,6 +37690,41 @@
         <v>100</v>
       </c>
     </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1063" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1063" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G1063" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>21700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1063"/>
+  <dimension ref="A1:I1064"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37725,6 +37725,41 @@
         <v>21700</v>
       </c>
     </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1064" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1064" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1064" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>2200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1064"/>
+  <dimension ref="A1:I1065"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37760,6 +37760,41 @@
         <v>2200</v>
       </c>
     </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1065" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1065" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1065" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>12300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1065"/>
+  <dimension ref="A1:I1066"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37795,6 +37795,41 @@
         <v>12300</v>
       </c>
     </row>
+    <row r="1066">
+      <c r="A1066" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1066" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1066" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1066" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G1066" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>3700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1066"/>
+  <dimension ref="A1:I1067"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37830,6 +37830,43 @@
         <v>3700</v>
       </c>
     </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1067" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1067" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1067" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G1067" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H1067" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I1067" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1067"/>
+  <dimension ref="A1:I1068"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37867,6 +37867,43 @@
         </is>
       </c>
     </row>
+    <row r="1068">
+      <c r="A1068" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1068" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1068" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G1068" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H1068" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I1068" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1068"/>
+  <dimension ref="A1:I1069"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37904,6 +37904,43 @@
         </is>
       </c>
     </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1069" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1069" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G1069" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H1069" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I1069" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1069"/>
+  <dimension ref="A1:I1070"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37941,6 +37941,41 @@
         </is>
       </c>
     </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1070" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1070" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1070" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1070" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>11900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1070"/>
+  <dimension ref="A1:I1071"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37976,6 +37976,41 @@
         <v>11900</v>
       </c>
     </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1071" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1071" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G1071" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>10100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1071"/>
+  <dimension ref="A1:I1073"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38011,6 +38011,78 @@
         <v>10100</v>
       </c>
     </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1072" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1072" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G1072" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1073" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1073" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G1073" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H1073" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="I1073" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1073"/>
+  <dimension ref="A1:I1075"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38083,6 +38083,76 @@
         </is>
       </c>
     </row>
+    <row r="1074">
+      <c r="A1074" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1074" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1074" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1074" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1074" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H1074" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1075" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1075" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1075" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>59000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1075"/>
+  <dimension ref="A1:I1076"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38153,6 +38153,41 @@
         <v>59000</v>
       </c>
     </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1076" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1076" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G1076" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>5700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1076"/>
+  <dimension ref="A1:I1077"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38188,6 +38188,41 @@
         <v>5700</v>
       </c>
     </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1077" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1077" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G1077" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>19600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1077"/>
+  <dimension ref="A1:I1078"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38223,6 +38223,41 @@
         <v>19600</v>
       </c>
     </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1078" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1078" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G1078" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>36300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1078"/>
+  <dimension ref="A1:I1079"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38258,6 +38258,41 @@
         <v>36300</v>
       </c>
     </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1079" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1079" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1079" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>28200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1079"/>
+  <dimension ref="A1:I1081"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38293,6 +38293,76 @@
         <v>28200</v>
       </c>
     </row>
+    <row r="1080">
+      <c r="A1080" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1080" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1080" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1080" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1081" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1081" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G1081" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>13100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1081"/>
+  <dimension ref="A1:I1082"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38363,6 +38363,41 @@
         <v>13100</v>
       </c>
     </row>
+    <row r="1082">
+      <c r="A1082" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1082" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1082" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1082" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>5400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1082"/>
+  <dimension ref="A1:I1083"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38398,6 +38398,41 @@
         <v>5400</v>
       </c>
     </row>
+    <row r="1083">
+      <c r="A1083" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1083" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1083" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G1083" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>59100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1083"/>
+  <dimension ref="A1:I1091"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35856,11 +35856,11 @@
     </row>
     <row r="1011">
       <c r="A1011" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C1011" t="inlineStr">
@@ -35874,28 +35874,28 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="F1011" t="n">
-        <v>0.855</v>
+        <v>0.88</v>
       </c>
       <c r="G1011" t="n">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="H1011" t="n">
-        <v>0.855</v>
+        <v>0.86</v>
       </c>
       <c r="I1011" t="n">
-        <v>6100</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C1012" t="inlineStr">
@@ -35909,28 +35909,28 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>0.855</v>
+        <v>0.86</v>
       </c>
       <c r="F1012" t="n">
-        <v>0.855</v>
+        <v>0.86</v>
       </c>
       <c r="G1012" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="H1012" t="n">
-        <v>0.855</v>
+        <v>0.86</v>
       </c>
       <c r="I1012" t="n">
-        <v>14200</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" t="n">
-        <v>1575331200</v>
+        <v>1574294400</v>
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C1013" t="inlineStr">
@@ -35944,30 +35944,28 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>0.855</v>
+        <v>0.88</v>
       </c>
       <c r="F1013" t="n">
-        <v>0.855</v>
+        <v>0.88</v>
       </c>
       <c r="G1013" t="n">
-        <v>0.855</v>
+        <v>0.85</v>
       </c>
       <c r="H1013" t="n">
-        <v>0.855</v>
-      </c>
-      <c r="I1013" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.85</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>6600</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="n">
-        <v>1575417600</v>
+        <v>1574380800</v>
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C1014" t="inlineStr">
@@ -35981,10 +35979,10 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="F1014" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="G1014" t="n">
         <v>0.85</v>
@@ -35993,16 +35991,16 @@
         <v>0.85</v>
       </c>
       <c r="I1014" t="n">
-        <v>7000</v>
+        <v>11300</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" t="n">
-        <v>1575504000</v>
+        <v>1574640000</v>
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C1015" t="inlineStr">
@@ -36016,28 +36014,28 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>0.845</v>
+        <v>0.87</v>
       </c>
       <c r="F1015" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="G1015" t="n">
-        <v>0.845</v>
+        <v>0.84</v>
       </c>
       <c r="H1015" t="n">
-        <v>0.845</v>
+        <v>0.84</v>
       </c>
       <c r="I1015" t="n">
-        <v>6100</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" t="n">
-        <v>1575590400</v>
+        <v>1574726400</v>
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C1016" t="inlineStr">
@@ -36062,19 +36060,17 @@
       <c r="H1016" t="n">
         <v>0.845</v>
       </c>
-      <c r="I1016" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I1016" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" t="n">
-        <v>1575849600</v>
+        <v>1574812800</v>
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C1017" t="inlineStr">
@@ -36091,25 +36087,25 @@
         <v>0.845</v>
       </c>
       <c r="F1017" t="n">
-        <v>0.855</v>
+        <v>0.845</v>
       </c>
       <c r="G1017" t="n">
-        <v>0.845</v>
+        <v>0.84</v>
       </c>
       <c r="H1017" t="n">
-        <v>0.855</v>
+        <v>0.84</v>
       </c>
       <c r="I1017" t="n">
-        <v>10400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" t="n">
-        <v>1575936000</v>
+        <v>1574899200</v>
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C1018" t="inlineStr">
@@ -36123,28 +36119,28 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="F1018" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="G1018" t="n">
-        <v>0.855</v>
+        <v>0.84</v>
       </c>
       <c r="H1018" t="n">
-        <v>0.855</v>
+        <v>0.84</v>
       </c>
       <c r="I1018" t="n">
-        <v>4800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" t="n">
-        <v>1576022400</v>
+        <v>1574985600</v>
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C1019" t="inlineStr">
@@ -36161,25 +36157,25 @@
         <v>0.84</v>
       </c>
       <c r="F1019" t="n">
-        <v>0.84</v>
+        <v>0.855</v>
       </c>
       <c r="G1019" t="n">
         <v>0.84</v>
       </c>
       <c r="H1019" t="n">
-        <v>0.84</v>
+        <v>0.855</v>
       </c>
       <c r="I1019" t="n">
-        <v>400</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" t="n">
-        <v>1576108800</v>
+        <v>1575244800</v>
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C1020" t="inlineStr">
@@ -36193,28 +36189,28 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>0.82</v>
+        <v>0.855</v>
       </c>
       <c r="F1020" t="n">
-        <v>0.82</v>
+        <v>0.855</v>
       </c>
       <c r="G1020" t="n">
-        <v>0.805</v>
+        <v>0.85</v>
       </c>
       <c r="H1020" t="n">
-        <v>0.805</v>
+        <v>0.855</v>
       </c>
       <c r="I1020" t="n">
-        <v>900</v>
+        <v>14200</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" t="n">
-        <v>1576195200</v>
+        <v>1575331200</v>
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C1021" t="inlineStr">
@@ -36228,28 +36224,30 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>0.865</v>
+        <v>0.855</v>
       </c>
       <c r="F1021" t="n">
-        <v>0.865</v>
+        <v>0.855</v>
       </c>
       <c r="G1021" t="n">
-        <v>0.865</v>
+        <v>0.855</v>
       </c>
       <c r="H1021" t="n">
-        <v>0.865</v>
-      </c>
-      <c r="I1021" t="n">
-        <v>5700</v>
+        <v>0.855</v>
+      </c>
+      <c r="I1021" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="n">
-        <v>1576454400</v>
+        <v>1575417600</v>
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C1022" t="inlineStr">
@@ -36263,28 +36261,28 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F1022" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="G1022" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="H1022" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="I1022" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" t="n">
-        <v>1576540800</v>
+        <v>1575504000</v>
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C1023" t="inlineStr">
@@ -36298,28 +36296,28 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>0.86</v>
+        <v>0.845</v>
       </c>
       <c r="F1023" t="n">
         <v>0.86</v>
       </c>
       <c r="G1023" t="n">
-        <v>0.86</v>
+        <v>0.845</v>
       </c>
       <c r="H1023" t="n">
-        <v>0.86</v>
+        <v>0.845</v>
       </c>
       <c r="I1023" t="n">
-        <v>3000</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" t="n">
-        <v>1576627200</v>
+        <v>1575590400</v>
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C1024" t="inlineStr">
@@ -36333,28 +36331,30 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>0.86</v>
+        <v>0.845</v>
       </c>
       <c r="F1024" t="n">
-        <v>0.86</v>
+        <v>0.845</v>
       </c>
       <c r="G1024" t="n">
-        <v>0.86</v>
+        <v>0.845</v>
       </c>
       <c r="H1024" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="I1024" t="n">
-        <v>1900</v>
+        <v>0.845</v>
+      </c>
+      <c r="I1024" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" t="n">
-        <v>1576713600</v>
+        <v>1575849600</v>
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C1025" t="inlineStr">
@@ -36368,28 +36368,28 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>0.86</v>
+        <v>0.845</v>
       </c>
       <c r="F1025" t="n">
-        <v>0.86</v>
+        <v>0.855</v>
       </c>
       <c r="G1025" t="n">
-        <v>0.86</v>
+        <v>0.845</v>
       </c>
       <c r="H1025" t="n">
-        <v>0.86</v>
+        <v>0.855</v>
       </c>
       <c r="I1025" t="n">
-        <v>900</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" t="n">
-        <v>1576800000</v>
+        <v>1575936000</v>
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C1026" t="inlineStr">
@@ -36403,28 +36403,28 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F1026" t="n">
         <v>0.86</v>
       </c>
       <c r="G1026" t="n">
-        <v>0.82</v>
+        <v>0.855</v>
       </c>
       <c r="H1026" t="n">
-        <v>0.86</v>
+        <v>0.855</v>
       </c>
       <c r="I1026" t="n">
-        <v>2200</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" t="n">
-        <v>1577059200</v>
+        <v>1576022400</v>
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C1027" t="inlineStr">
@@ -36438,28 +36438,28 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="F1027" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="G1027" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="H1027" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="I1027" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" t="n">
-        <v>1577145600</v>
+        <v>1576108800</v>
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C1028" t="inlineStr">
@@ -36473,28 +36473,28 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="F1028" t="n">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="G1028" t="n">
-        <v>0.86</v>
+        <v>0.805</v>
       </c>
       <c r="H1028" t="n">
-        <v>0.86</v>
+        <v>0.805</v>
       </c>
       <c r="I1028" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" t="n">
-        <v>1577318400</v>
+        <v>1576195200</v>
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C1029" t="inlineStr">
@@ -36508,28 +36508,28 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>0.855</v>
+        <v>0.865</v>
       </c>
       <c r="F1029" t="n">
-        <v>0.855</v>
+        <v>0.865</v>
       </c>
       <c r="G1029" t="n">
-        <v>0.85</v>
+        <v>0.865</v>
       </c>
       <c r="H1029" t="n">
-        <v>0.85</v>
+        <v>0.865</v>
       </c>
       <c r="I1029" t="n">
-        <v>8900</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" t="n">
-        <v>1577404800</v>
+        <v>1576454400</v>
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C1030" t="inlineStr">
@@ -36543,30 +36543,28 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F1030" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="G1030" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="H1030" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="I1030" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.86</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" t="n">
-        <v>1577664000</v>
+        <v>1576540800</v>
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C1031" t="inlineStr">
@@ -36580,28 +36578,28 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F1031" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="G1031" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="H1031" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="I1031" t="n">
-        <v>18400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" t="n">
-        <v>1577750400</v>
+        <v>1576627200</v>
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C1032" t="inlineStr">
@@ -36615,28 +36613,28 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F1032" t="n">
-        <v>0.855</v>
+        <v>0.86</v>
       </c>
       <c r="G1032" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="H1032" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="I1032" t="n">
-        <v>20400</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" t="n">
-        <v>1577923200</v>
+        <v>1576713600</v>
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C1033" t="inlineStr">
@@ -36650,28 +36648,28 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F1033" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="G1033" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="H1033" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="I1033" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" t="n">
-        <v>1578009600</v>
+        <v>1576800000</v>
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C1034" t="inlineStr">
@@ -36685,30 +36683,28 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="F1034" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="G1034" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="H1034" t="n">
-        <v>0.8149999999999999</v>
-      </c>
-      <c r="I1034" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.86</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>2200</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" t="n">
-        <v>1578268800</v>
+        <v>1577059200</v>
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C1035" t="inlineStr">
@@ -36722,28 +36718,28 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F1035" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="G1035" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="H1035" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="I1035" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" t="n">
-        <v>1578355200</v>
+        <v>1577145600</v>
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C1036" t="inlineStr">
@@ -36757,28 +36753,28 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F1036" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="G1036" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="H1036" t="n">
-        <v>0.845</v>
+        <v>0.86</v>
       </c>
       <c r="I1036" t="n">
-        <v>19300</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" t="n">
-        <v>1578441600</v>
+        <v>1577318400</v>
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C1037" t="inlineStr">
@@ -36792,28 +36788,28 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>0.845</v>
+        <v>0.855</v>
       </c>
       <c r="F1037" t="n">
-        <v>0.845</v>
+        <v>0.855</v>
       </c>
       <c r="G1037" t="n">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="H1037" t="n">
-        <v>0.825</v>
+        <v>0.85</v>
       </c>
       <c r="I1037" t="n">
-        <v>19300</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" t="n">
-        <v>1578528000</v>
+        <v>1577404800</v>
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C1038" t="inlineStr">
@@ -36827,28 +36823,30 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F1038" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="G1038" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="H1038" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="I1038" t="n">
-        <v>200</v>
+        <v>0.85</v>
+      </c>
+      <c r="I1038" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" t="n">
-        <v>1578614400</v>
+        <v>1577664000</v>
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C1039" t="inlineStr">
@@ -36862,10 +36860,10 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F1039" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="G1039" t="n">
         <v>0.85</v>
@@ -36874,16 +36872,16 @@
         <v>0.85</v>
       </c>
       <c r="I1039" t="n">
-        <v>13100</v>
+        <v>18400</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" t="n">
-        <v>1578873600</v>
+        <v>1577750400</v>
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C1040" t="inlineStr">
@@ -36900,25 +36898,25 @@
         <v>0.85</v>
       </c>
       <c r="F1040" t="n">
-        <v>0.86</v>
+        <v>0.855</v>
       </c>
       <c r="G1040" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H1040" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I1040" t="n">
-        <v>7100</v>
+        <v>20400</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" t="n">
-        <v>1578960000</v>
+        <v>1577923200</v>
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C1041" t="inlineStr">
@@ -36932,28 +36930,28 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>0.83</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="F1041" t="n">
-        <v>0.83</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="G1041" t="n">
-        <v>0.83</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H1041" t="n">
-        <v>0.83</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="I1041" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" t="n">
-        <v>1579046400</v>
+        <v>1578009600</v>
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C1042" t="inlineStr">
@@ -36967,28 +36965,30 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>0.825</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="F1042" t="n">
-        <v>0.83</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="G1042" t="n">
-        <v>0.825</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H1042" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="I1042" t="n">
-        <v>3600</v>
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I1042" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" t="n">
-        <v>1579132800</v>
+        <v>1578268800</v>
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C1043" t="inlineStr">
@@ -37002,28 +37002,28 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F1043" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="G1043" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="H1043" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="I1043" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" t="n">
-        <v>1579219200</v>
+        <v>1578355200</v>
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C1044" t="inlineStr">
@@ -37037,28 +37037,28 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="F1044" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="G1044" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="H1044" t="n">
-        <v>0.83</v>
+        <v>0.845</v>
       </c>
       <c r="I1044" t="n">
-        <v>4500</v>
+        <v>19300</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" t="n">
-        <v>1579478400</v>
+        <v>1578441600</v>
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C1045" t="inlineStr">
@@ -37072,30 +37072,28 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>0.83</v>
+        <v>0.845</v>
       </c>
       <c r="F1045" t="n">
-        <v>0.83</v>
+        <v>0.845</v>
       </c>
       <c r="G1045" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="H1045" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="I1045" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.825</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>19300</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" t="n">
-        <v>1579564800</v>
+        <v>1578528000</v>
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C1046" t="inlineStr">
@@ -37109,28 +37107,28 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="F1046" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="G1046" t="n">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="H1046" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="I1046" t="n">
-        <v>3000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" t="n">
-        <v>1579651200</v>
+        <v>1578614400</v>
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C1047" t="inlineStr">
@@ -37144,28 +37142,28 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="F1047" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G1047" t="n">
         <v>0.85</v>
-      </c>
-      <c r="G1047" t="n">
-        <v>0.84</v>
       </c>
       <c r="H1047" t="n">
         <v>0.85</v>
       </c>
       <c r="I1047" t="n">
-        <v>28700</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" t="n">
-        <v>1579737600</v>
+        <v>1578873600</v>
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C1048" t="inlineStr">
@@ -37179,7 +37177,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F1048" t="n">
         <v>0.86</v>
@@ -37188,19 +37186,19 @@
         <v>0.83</v>
       </c>
       <c r="H1048" t="n">
-        <v>0.855</v>
+        <v>0.83</v>
       </c>
       <c r="I1048" t="n">
-        <v>7000</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" t="n">
-        <v>1579824000</v>
+        <v>1578960000</v>
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C1049" t="inlineStr">
@@ -37214,30 +37212,28 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>0.855</v>
+        <v>0.83</v>
       </c>
       <c r="F1049" t="n">
-        <v>0.855</v>
+        <v>0.83</v>
       </c>
       <c r="G1049" t="n">
-        <v>0.855</v>
+        <v>0.83</v>
       </c>
       <c r="H1049" t="n">
-        <v>0.855</v>
-      </c>
-      <c r="I1049" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.83</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" t="n">
-        <v>1580169600</v>
+        <v>1579046400</v>
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C1050" t="inlineStr">
@@ -37251,28 +37247,28 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>0.84</v>
+        <v>0.825</v>
       </c>
       <c r="F1050" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="G1050" t="n">
         <v>0.825</v>
       </c>
       <c r="H1050" t="n">
-        <v>0.825</v>
+        <v>0.83</v>
       </c>
       <c r="I1050" t="n">
-        <v>6500</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" t="n">
-        <v>1580256000</v>
+        <v>1579132800</v>
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C1051" t="inlineStr">
@@ -37286,28 +37282,28 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F1051" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="G1051" t="n">
-        <v>0.845</v>
+        <v>0.86</v>
       </c>
       <c r="H1051" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="I1051" t="n">
-        <v>24300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" t="n">
-        <v>1580342400</v>
+        <v>1579219200</v>
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C1052" t="inlineStr">
@@ -37321,28 +37317,28 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="F1052" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="G1052" t="n">
         <v>0.83</v>
       </c>
       <c r="H1052" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="I1052" t="n">
-        <v>8700</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" t="n">
-        <v>1580428800</v>
+        <v>1579478400</v>
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C1053" t="inlineStr">
@@ -37356,28 +37352,30 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="F1053" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="G1053" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="H1053" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="I1053" t="n">
-        <v>66100</v>
+        <v>0.83</v>
+      </c>
+      <c r="I1053" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" t="n">
-        <v>1580688000</v>
+        <v>1579564800</v>
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C1054" t="inlineStr">
@@ -37391,28 +37389,28 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>0.825</v>
+        <v>0.84</v>
       </c>
       <c r="F1054" t="n">
         <v>0.85</v>
       </c>
       <c r="G1054" t="n">
-        <v>0.825</v>
+        <v>0.84</v>
       </c>
       <c r="H1054" t="n">
-        <v>0.845</v>
+        <v>0.85</v>
       </c>
       <c r="I1054" t="n">
-        <v>11900</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" t="n">
-        <v>1580774400</v>
+        <v>1579651200</v>
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C1055" t="inlineStr">
@@ -37426,30 +37424,28 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>0.845</v>
+        <v>0.84</v>
       </c>
       <c r="F1055" t="n">
-        <v>0.845</v>
+        <v>0.85</v>
       </c>
       <c r="G1055" t="n">
-        <v>0.845</v>
+        <v>0.84</v>
       </c>
       <c r="H1055" t="n">
-        <v>0.845</v>
-      </c>
-      <c r="I1055" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.85</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>28700</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" t="n">
-        <v>1580860800</v>
+        <v>1579737600</v>
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C1056" t="inlineStr">
@@ -37463,28 +37459,28 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F1056" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="G1056" t="n">
-        <v>0.835</v>
+        <v>0.83</v>
       </c>
       <c r="H1056" t="n">
-        <v>0.835</v>
+        <v>0.855</v>
       </c>
       <c r="I1056" t="n">
-        <v>10400</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" t="n">
-        <v>1580947200</v>
+        <v>1579824000</v>
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C1057" t="inlineStr">
@@ -37498,28 +37494,30 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>0.84</v>
+        <v>0.855</v>
       </c>
       <c r="F1057" t="n">
-        <v>0.84</v>
+        <v>0.855</v>
       </c>
       <c r="G1057" t="n">
-        <v>0.84</v>
+        <v>0.855</v>
       </c>
       <c r="H1057" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="I1057" t="n">
-        <v>10000</v>
+        <v>0.855</v>
+      </c>
+      <c r="I1057" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" t="n">
-        <v>1581033600</v>
+        <v>1580169600</v>
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C1058" t="inlineStr">
@@ -37533,28 +37531,28 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>0.845</v>
+        <v>0.84</v>
       </c>
       <c r="F1058" t="n">
-        <v>0.845</v>
+        <v>0.85</v>
       </c>
       <c r="G1058" t="n">
-        <v>0.83</v>
+        <v>0.825</v>
       </c>
       <c r="H1058" t="n">
-        <v>0.83</v>
+        <v>0.825</v>
       </c>
       <c r="I1058" t="n">
-        <v>5900</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" t="n">
-        <v>1581292800</v>
+        <v>1580256000</v>
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C1059" t="inlineStr">
@@ -37568,28 +37566,28 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>0.835</v>
+        <v>0.87</v>
       </c>
       <c r="F1059" t="n">
-        <v>0.855</v>
+        <v>0.87</v>
       </c>
       <c r="G1059" t="n">
-        <v>0.83</v>
+        <v>0.845</v>
       </c>
       <c r="H1059" t="n">
-        <v>0.855</v>
+        <v>0.85</v>
       </c>
       <c r="I1059" t="n">
-        <v>5300</v>
+        <v>24300</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" t="n">
-        <v>1581379200</v>
+        <v>1580342400</v>
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C1060" t="inlineStr">
@@ -37603,28 +37601,28 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>0.855</v>
+        <v>0.83</v>
       </c>
       <c r="F1060" t="n">
-        <v>0.855</v>
+        <v>0.85</v>
       </c>
       <c r="G1060" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="H1060" t="n">
         <v>0.85</v>
       </c>
       <c r="I1060" t="n">
-        <v>5100</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" t="n">
-        <v>1581465600</v>
+        <v>1580428800</v>
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C1061" t="inlineStr">
@@ -37644,24 +37642,22 @@
         <v>0.85</v>
       </c>
       <c r="G1061" t="n">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="H1061" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="I1061" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.82</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>66100</v>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" t="n">
-        <v>1581552000</v>
+        <v>1580688000</v>
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C1062" t="inlineStr">
@@ -37675,28 +37671,28 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>0.86</v>
+        <v>0.825</v>
       </c>
       <c r="F1062" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="G1062" t="n">
-        <v>0.86</v>
+        <v>0.825</v>
       </c>
       <c r="H1062" t="n">
-        <v>0.86</v>
+        <v>0.845</v>
       </c>
       <c r="I1062" t="n">
-        <v>100</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" t="n">
-        <v>1581638400</v>
+        <v>1580774400</v>
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C1063" t="inlineStr">
@@ -37710,28 +37706,30 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>0.86</v>
+        <v>0.845</v>
       </c>
       <c r="F1063" t="n">
-        <v>0.86</v>
+        <v>0.845</v>
       </c>
       <c r="G1063" t="n">
-        <v>0.82</v>
+        <v>0.845</v>
       </c>
       <c r="H1063" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="I1063" t="n">
-        <v>21700</v>
+        <v>0.845</v>
+      </c>
+      <c r="I1063" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" t="n">
-        <v>1581897600</v>
+        <v>1580860800</v>
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C1064" t="inlineStr">
@@ -37745,28 +37743,28 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="F1064" t="n">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="G1064" t="n">
-        <v>0.82</v>
+        <v>0.835</v>
       </c>
       <c r="H1064" t="n">
-        <v>0.82</v>
+        <v>0.835</v>
       </c>
       <c r="I1064" t="n">
-        <v>2200</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" t="n">
-        <v>1581984000</v>
+        <v>1580947200</v>
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C1065" t="inlineStr">
@@ -37780,28 +37778,28 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="F1065" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="G1065" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="H1065" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="I1065" t="n">
-        <v>12300</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" t="n">
-        <v>1582070400</v>
+        <v>1581033600</v>
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C1066" t="inlineStr">
@@ -37815,28 +37813,28 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>0.825</v>
+        <v>0.845</v>
       </c>
       <c r="F1066" t="n">
-        <v>0.86</v>
+        <v>0.845</v>
       </c>
       <c r="G1066" t="n">
-        <v>0.825</v>
+        <v>0.83</v>
       </c>
       <c r="H1066" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="I1066" t="n">
-        <v>3700</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" t="n">
-        <v>1582156800</v>
+        <v>1581292800</v>
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C1067" t="inlineStr">
@@ -37850,30 +37848,28 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>0.86</v>
+        <v>0.835</v>
       </c>
       <c r="F1067" t="n">
-        <v>0.86</v>
+        <v>0.855</v>
       </c>
       <c r="G1067" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="H1067" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="I1067" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.855</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>5300</v>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" t="n">
-        <v>1582243200</v>
+        <v>1581379200</v>
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C1068" t="inlineStr">
@@ -37887,30 +37883,28 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>0.86</v>
+        <v>0.855</v>
       </c>
       <c r="F1068" t="n">
-        <v>0.86</v>
+        <v>0.855</v>
       </c>
       <c r="G1068" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="H1068" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="I1068" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.85</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>5100</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" t="n">
-        <v>1582502400</v>
+        <v>1581465600</v>
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C1069" t="inlineStr">
@@ -37924,16 +37918,16 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F1069" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="G1069" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="H1069" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="I1069" t="inlineStr">
         <is>
@@ -37943,11 +37937,11 @@
     </row>
     <row r="1070">
       <c r="A1070" t="n">
-        <v>1582588800</v>
+        <v>1581552000</v>
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C1070" t="inlineStr">
@@ -37961,28 +37955,28 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F1070" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="G1070" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="H1070" t="n">
-        <v>0.845</v>
+        <v>0.86</v>
       </c>
       <c r="I1070" t="n">
-        <v>11900</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" t="n">
-        <v>1582675200</v>
+        <v>1581638400</v>
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C1071" t="inlineStr">
@@ -37996,28 +37990,28 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F1071" t="n">
-        <v>0.855</v>
+        <v>0.86</v>
       </c>
       <c r="G1071" t="n">
         <v>0.82</v>
       </c>
       <c r="H1071" t="n">
-        <v>0.855</v>
+        <v>0.82</v>
       </c>
       <c r="I1071" t="n">
-        <v>10100</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" t="n">
-        <v>1582761600</v>
+        <v>1581897600</v>
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C1072" t="inlineStr">
@@ -38031,28 +38025,28 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="F1072" t="n">
-        <v>0.855</v>
+        <v>0.82</v>
       </c>
       <c r="G1072" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="H1072" t="n">
-        <v>0.855</v>
+        <v>0.82</v>
       </c>
       <c r="I1072" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" t="n">
-        <v>1582848000</v>
+        <v>1581984000</v>
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C1073" t="inlineStr">
@@ -38066,30 +38060,28 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>0.855</v>
+        <v>0.82</v>
       </c>
       <c r="F1073" t="n">
-        <v>0.855</v>
+        <v>0.82</v>
       </c>
       <c r="G1073" t="n">
-        <v>0.855</v>
+        <v>0.82</v>
       </c>
       <c r="H1073" t="n">
-        <v>0.855</v>
-      </c>
-      <c r="I1073" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.82</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>12300</v>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" t="n">
-        <v>1583107200</v>
+        <v>1582070400</v>
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C1074" t="inlineStr">
@@ -38103,28 +38095,28 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>0.805</v>
+        <v>0.825</v>
       </c>
       <c r="F1074" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="G1074" t="n">
-        <v>0.805</v>
+        <v>0.825</v>
       </c>
       <c r="H1074" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="I1074" t="n">
-        <v>2100</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" t="n">
-        <v>1583193600</v>
+        <v>1582156800</v>
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C1075" t="inlineStr">
@@ -38138,28 +38130,30 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F1075" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="G1075" t="n">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="H1075" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="I1075" t="n">
-        <v>59000</v>
+        <v>0.86</v>
+      </c>
+      <c r="I1075" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" t="n">
-        <v>1583280000</v>
+        <v>1582243200</v>
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C1076" t="inlineStr">
@@ -38173,28 +38167,30 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>0.825</v>
+        <v>0.86</v>
       </c>
       <c r="F1076" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="G1076" t="n">
-        <v>0.805</v>
+        <v>0.86</v>
       </c>
       <c r="H1076" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="I1076" t="n">
-        <v>5700</v>
+        <v>0.86</v>
+      </c>
+      <c r="I1076" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" t="n">
-        <v>1583366400</v>
+        <v>1582502400</v>
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C1077" t="inlineStr">
@@ -38208,28 +38204,30 @@
         </is>
       </c>
       <c r="E1077" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F1077" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="G1077" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="H1077" t="n">
-        <v>0.8149999999999999</v>
-      </c>
-      <c r="I1077" t="n">
-        <v>19600</v>
+        <v>0.86</v>
+      </c>
+      <c r="I1077" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" t="n">
-        <v>1583452800</v>
+        <v>1582588800</v>
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C1078" t="inlineStr">
@@ -38243,28 +38241,28 @@
         </is>
       </c>
       <c r="E1078" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="F1078" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="G1078" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="H1078" t="n">
-        <v>0.82</v>
+        <v>0.845</v>
       </c>
       <c r="I1078" t="n">
-        <v>36300</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" t="n">
-        <v>1583712000</v>
+        <v>1582675200</v>
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C1079" t="inlineStr">
@@ -38281,25 +38279,25 @@
         <v>0.82</v>
       </c>
       <c r="F1079" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G1079" t="n">
         <v>0.82</v>
       </c>
-      <c r="G1079" t="n">
-        <v>0.8</v>
-      </c>
       <c r="H1079" t="n">
-        <v>0.8</v>
+        <v>0.855</v>
       </c>
       <c r="I1079" t="n">
-        <v>28200</v>
+        <v>10100</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" t="n">
-        <v>1583798400</v>
+        <v>1582761600</v>
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C1080" t="inlineStr">
@@ -38313,28 +38311,28 @@
         </is>
       </c>
       <c r="E1080" t="n">
-        <v>0.795</v>
+        <v>0.84</v>
       </c>
       <c r="F1080" t="n">
-        <v>0.8</v>
+        <v>0.855</v>
       </c>
       <c r="G1080" t="n">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="H1080" t="n">
-        <v>0.8</v>
+        <v>0.855</v>
       </c>
       <c r="I1080" t="n">
-        <v>32500</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" t="n">
-        <v>1583884800</v>
+        <v>1582848000</v>
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C1081" t="inlineStr">
@@ -38348,28 +38346,30 @@
         </is>
       </c>
       <c r="E1081" t="n">
-        <v>0.82</v>
+        <v>0.855</v>
       </c>
       <c r="F1081" t="n">
-        <v>0.825</v>
+        <v>0.855</v>
       </c>
       <c r="G1081" t="n">
-        <v>0.8</v>
+        <v>0.855</v>
       </c>
       <c r="H1081" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I1081" t="n">
-        <v>13100</v>
+        <v>0.855</v>
+      </c>
+      <c r="I1081" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" t="n">
-        <v>1583971200</v>
+        <v>1583107200</v>
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-03-02</t>
         </is>
       </c>
       <c r="C1082" t="inlineStr">
@@ -38383,53 +38383,333 @@
         </is>
       </c>
       <c r="E1082" t="n">
-        <v>0.8</v>
+        <v>0.805</v>
       </c>
       <c r="F1082" t="n">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="G1082" t="n">
-        <v>0.8</v>
+        <v>0.805</v>
       </c>
       <c r="H1082" t="n">
-        <v>0.805</v>
+        <v>0.85</v>
       </c>
       <c r="I1082" t="n">
-        <v>5400</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1083" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1083" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1083" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1084" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1084" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G1084" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H1084" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1085" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1085" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G1085" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H1085" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1086" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1086" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G1086" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1086" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1087" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1087" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1087" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1087" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>28200</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1088" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1088" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1088" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1089" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1089" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G1089" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>13100</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1090" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1090" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1090" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1090" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1090" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B1083" t="inlineStr">
+      <c r="B1091" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C1083" t="inlineStr">
-        <is>
-          <t>5269</t>
-        </is>
-      </c>
-      <c r="D1083" t="inlineStr">
-        <is>
-          <t>ALSREIT</t>
-        </is>
-      </c>
-      <c r="E1083" t="n">
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1091" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1091" t="n">
         <v>0.805</v>
       </c>
-      <c r="F1083" t="n">
+      <c r="F1091" t="n">
         <v>0.805</v>
       </c>
-      <c r="G1083" t="n">
+      <c r="G1091" t="n">
         <v>0.78</v>
       </c>
-      <c r="H1083" t="n">
+      <c r="H1091" t="n">
         <v>0.8</v>
       </c>
-      <c r="I1083" t="n">
+      <c r="I1091" t="n">
         <v>59100</v>
       </c>
     </row>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1091"/>
+  <dimension ref="A1:I1092"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38713,6 +38713,41 @@
         <v>59100</v>
       </c>
     </row>
+    <row r="1092">
+      <c r="A1092" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1092" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1092" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G1092" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H1092" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>122100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1092"/>
+  <dimension ref="A1:I1093"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38748,6 +38748,41 @@
         <v>122100</v>
       </c>
     </row>
+    <row r="1093">
+      <c r="A1093" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1093" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1093" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1093" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H1093" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>10700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1093"/>
+  <dimension ref="A1:I1094"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38783,6 +38783,41 @@
         <v>10700</v>
       </c>
     </row>
+    <row r="1094">
+      <c r="A1094" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1094" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1094" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G1094" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1094" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>13300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1094"/>
+  <dimension ref="A1:I1095"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38818,6 +38818,41 @@
         <v>13300</v>
       </c>
     </row>
+    <row r="1095">
+      <c r="A1095" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1095" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1095" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G1095" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1095" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>69600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1095"/>
+  <dimension ref="A1:I1096"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38853,6 +38853,41 @@
         <v>69600</v>
       </c>
     </row>
+    <row r="1096">
+      <c r="A1096" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1096" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1096" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1096" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1096" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1096" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>57900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1096"/>
+  <dimension ref="A1:I1097"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38888,6 +38888,41 @@
         <v>57900</v>
       </c>
     </row>
+    <row r="1097">
+      <c r="A1097" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1097" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1097" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1097" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1097" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>18900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1097"/>
+  <dimension ref="A1:I1098"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38923,6 +38923,41 @@
         <v>18900</v>
       </c>
     </row>
+    <row r="1098">
+      <c r="A1098" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1098" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1098" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G1098" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1098" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>105300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1098"/>
+  <dimension ref="A1:I1099"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38958,6 +38958,41 @@
         <v>105300</v>
       </c>
     </row>
+    <row r="1099">
+      <c r="A1099" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1099" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1099" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1099" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1099" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>104400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1099"/>
+  <dimension ref="A1:I1100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38993,6 +38993,41 @@
         <v>104400</v>
       </c>
     </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1100" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1100" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G1100" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1100" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>11200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1100"/>
+  <dimension ref="A1:I1101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39028,6 +39028,41 @@
         <v>11200</v>
       </c>
     </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1101" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1101" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G1101" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H1101" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>5500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1101"/>
+  <dimension ref="A1:I1102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39063,6 +39063,41 @@
         <v>5500</v>
       </c>
     </row>
+    <row r="1102">
+      <c r="A1102" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1102" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1102" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1102" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G1102" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H1102" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>11800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1102"/>
+  <dimension ref="A1:I1103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39098,6 +39098,41 @@
         <v>11800</v>
       </c>
     </row>
+    <row r="1103">
+      <c r="A1103" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1103" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1103" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G1103" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H1103" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>10800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1103"/>
+  <dimension ref="A1:I1104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39133,6 +39133,41 @@
         <v>10800</v>
       </c>
     </row>
+    <row r="1104">
+      <c r="A1104" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1104" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1104" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G1104" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1104" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>23000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1104"/>
+  <dimension ref="A1:I1105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39168,6 +39168,41 @@
         <v>23000</v>
       </c>
     </row>
+    <row r="1105">
+      <c r="A1105" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1105" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1105" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1105" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1105" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1105" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1105"/>
+  <dimension ref="A1:I1106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39203,6 +39203,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1106">
+      <c r="A1106" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1106" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1106" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1106" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1106" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1106" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>2300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1106"/>
+  <dimension ref="A1:I1107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39238,6 +39238,43 @@
         <v>2300</v>
       </c>
     </row>
+    <row r="1107">
+      <c r="A1107" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1107" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1107" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1107" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1107" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1107" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I1107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1107"/>
+  <dimension ref="A1:I1108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39275,6 +39275,43 @@
         </is>
       </c>
     </row>
+    <row r="1108">
+      <c r="A1108" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1108" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1108" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1108" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1108" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1108" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I1108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1108"/>
+  <dimension ref="A1:I1109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39312,6 +39312,41 @@
         </is>
       </c>
     </row>
+    <row r="1109">
+      <c r="A1109" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1109" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1109" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1109" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G1109" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="H1109" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>7200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1109"/>
+  <dimension ref="A1:I1110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39347,6 +39347,41 @@
         <v>7200</v>
       </c>
     </row>
+    <row r="1110">
+      <c r="A1110" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1110" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1110" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1110" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1110" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H1110" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>10800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1110"/>
+  <dimension ref="A1:I1111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39382,6 +39382,43 @@
         <v>10800</v>
       </c>
     </row>
+    <row r="1111">
+      <c r="A1111" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1111" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1111" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1111" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G1111" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H1111" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I1111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1111"/>
+  <dimension ref="A1:I1112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39419,6 +39419,41 @@
         </is>
       </c>
     </row>
+    <row r="1112">
+      <c r="A1112" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1112" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1112" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1112" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G1112" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1112" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>11500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1112"/>
+  <dimension ref="A1:I1113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39454,6 +39454,41 @@
         <v>11500</v>
       </c>
     </row>
+    <row r="1113">
+      <c r="A1113" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1113" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1113" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G1113" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1113" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>41200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1113"/>
+  <dimension ref="A1:I1114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39489,6 +39489,41 @@
         <v>41200</v>
       </c>
     </row>
+    <row r="1114">
+      <c r="A1114" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1114" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1114" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G1114" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1114" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>158900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1114"/>
+  <dimension ref="A1:I1115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39524,6 +39524,41 @@
         <v>158900</v>
       </c>
     </row>
+    <row r="1115">
+      <c r="A1115" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1115" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1115" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G1115" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1115" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1115" t="n">
+        <v>7500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1115"/>
+  <dimension ref="A1:I1116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39559,6 +39559,41 @@
         <v>7500</v>
       </c>
     </row>
+    <row r="1116">
+      <c r="A1116" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1116" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1116" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G1116" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H1116" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>15300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1116"/>
+  <dimension ref="A1:I1118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39594,6 +39594,76 @@
         <v>15300</v>
       </c>
     </row>
+    <row r="1117">
+      <c r="A1117" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1117" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1117" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="G1117" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1117" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I1117" t="n">
+        <v>74500</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1118" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1118" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1118" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1118" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H1118" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>5700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1118"/>
+  <dimension ref="A1:I1119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39664,6 +39664,41 @@
         <v>5700</v>
       </c>
     </row>
+    <row r="1119">
+      <c r="A1119" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1119" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1119" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1119" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G1119" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H1119" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>3600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1119"/>
+  <dimension ref="A1:I1122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39699,6 +39699,111 @@
         <v>3600</v>
       </c>
     </row>
+    <row r="1120">
+      <c r="A1120" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1120" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1120" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1120" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G1120" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1120" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1121" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1121" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1121" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G1121" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1122" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1122" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1122" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G1122" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>17100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1122"/>
+  <dimension ref="A1:I1123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39804,6 +39804,41 @@
         <v>17100</v>
       </c>
     </row>
+    <row r="1123">
+      <c r="A1123" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1123" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1123" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1123" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G1123" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>2800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1123"/>
+  <dimension ref="A1:I1124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39839,6 +39839,41 @@
         <v>2800</v>
       </c>
     </row>
+    <row r="1124">
+      <c r="A1124" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1124" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1124" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1124" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G1124" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>153100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5269.xlsx
+++ b/data/5269.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1124"/>
+  <dimension ref="A1:I1127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39874,6 +39874,111 @@
         <v>153100</v>
       </c>
     </row>
+    <row r="1125">
+      <c r="A1125" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1125" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1125" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1125" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>33800</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1126" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1126" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1126" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1126" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D1127" t="inlineStr">
+        <is>
+          <t>ALSREIT</t>
+        </is>
+      </c>
+      <c r="E1127" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1127" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>1100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
